--- a/data/trans_dic/P57_AF_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P57_AF_R-Estudios-trans_dic.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>dukeAdic</t>
+          <t>Población con apoyo afectivo bajo (Duke)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P57_AF_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P57_AF_R-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P57_AF_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P57_AF_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,14%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,66%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,58%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,77%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,4%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,58%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,82%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,83%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,29%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,35%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,57%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,62%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>63,98; 69,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>63,21; 69,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>72,45; 78,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>59,63; 67,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>64,67; 69,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>67,01; 72,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>78,08; 83,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>64,12; 69,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>65,52; 69,33</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>66,33; 70,39</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>76,42; 80,4</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>63,42; 67,81</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,05%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,38%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,22%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,88%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,25%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,79%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,95%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,51%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,62%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,99%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,96%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>55,61; 60,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>58,08; 62,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>73,27; 77,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>51,18; 58,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>56,5; 61,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>65,06; 69,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>74,91; 78,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>56,82; 66,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>56,89; 60,21</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>61,93; 65,24</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>74,61; 77,46</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>55,46; 61,32</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,73%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,41%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,89%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,77%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,72%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,94%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,91%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,73%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,4%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,69%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,9%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,68%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>52,26; 60,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>53,19; 63,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>62,59; 71,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>47,87; 56,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>46,7; 56,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>51,73; 61,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>60,76; 68,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>44,52; 51,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>50,96; 57,54</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>54,13; 61,09</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>63,03; 68,59</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>47,08; 52,48</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,7%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,89%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,95%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,32%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,25%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,09%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,14%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,98%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,39%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,05%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,81%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>58,95; 62,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>60,02; 63,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>72,41; 75,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>53,24; 58,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>59,65; 62,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>65,14; 68,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>74,71; 77,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>56,89; 63,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>59,76; 62,22</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>63,04; 65,56</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>73,95; 76,16</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>56,06; 59,98</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P57_AF_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P57_AF_R-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>63,77%</t>
+          <t>62,82%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>66,83%</t>
+          <t>65,93%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>65,62%</t>
+          <t>64,66%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>59,63; 67,41</t>
+          <t>58,68; 66,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>64,12; 69,44</t>
+          <t>63,15; 68,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>63,42; 67,81</t>
+          <t>62,38; 66,89</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>55,88%</t>
+          <t>49,56%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>59,95%</t>
+          <t>59,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>57,96%</t>
+          <t>54,23%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>51,18; 58,75</t>
+          <t>33,94; 56,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>56,82; 66,28</t>
+          <t>52,83; 70,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>55,46; 61,32</t>
+          <t>45,2; 60,26</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>51,77%</t>
+          <t>51,23%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>47,73%</t>
+          <t>47,26%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>49,68%</t>
+          <t>49,22%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>47,87; 56,11</t>
+          <t>47,04; 55,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>44,52; 51,12</t>
+          <t>44,07; 50,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>47,08; 52,48</t>
+          <t>46,54; 52,16</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>56,32%</t>
+          <t>51,84%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>59,14%</t>
+          <t>58,28%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>57,81%</t>
+          <t>55,15%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>53,24; 58,43</t>
+          <t>41,18; 56,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>56,89; 63,26</t>
+          <t>54,31; 65,76</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>56,06; 59,98</t>
+          <t>49,06; 58,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P57_AF_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P57_AF_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>63,98; 69,83</t>
+          <t>64,21; 70,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>63,21; 69,51</t>
+          <t>63,41; 69,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>72,45; 78,79</t>
+          <t>72,17; 78,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>58,68; 66,72</t>
+          <t>58,49; 66,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>64,67; 69,95</t>
+          <t>64,64; 69,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>67,01; 72,2</t>
+          <t>67,04; 72,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>78,08; 83,8</t>
+          <t>78,25; 83,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>63,15; 68,41</t>
+          <t>63,25; 68,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>65,52; 69,33</t>
+          <t>65,47; 69,22</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>66,33; 70,39</t>
+          <t>66,56; 70,26</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>76,42; 80,4</t>
+          <t>76,51; 80,37</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>62,38; 66,89</t>
+          <t>62,28; 66,82</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>55,61; 60,41</t>
+          <t>55,6; 60,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>58,08; 62,41</t>
+          <t>58,19; 62,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>73,27; 77,03</t>
+          <t>73,06; 77,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>33,94; 56,27</t>
+          <t>32,41; 56,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>56,5; 61,51</t>
+          <t>56,32; 61,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>65,06; 69,59</t>
+          <t>64,96; 69,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>74,91; 78,57</t>
+          <t>74,72; 78,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>52,83; 70,14</t>
+          <t>53,16; 70,95</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>56,89; 60,21</t>
+          <t>56,85; 60,34</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>61,93; 65,24</t>
+          <t>61,75; 65,04</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>74,61; 77,46</t>
+          <t>74,7; 77,38</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>45,2; 60,26</t>
+          <t>45,9; 59,98</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>52,26; 60,93</t>
+          <t>52,12; 61,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>53,19; 63,11</t>
+          <t>53,92; 63,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>62,59; 71,07</t>
+          <t>62,69; 71,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>47,04; 55,71</t>
+          <t>47,43; 55,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>46,7; 56,15</t>
+          <t>46,9; 56,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>51,73; 61,43</t>
+          <t>51,7; 61,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>60,76; 68,79</t>
+          <t>60,71; 69,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>44,07; 50,61</t>
+          <t>43,87; 50,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>50,96; 57,54</t>
+          <t>51,07; 57,54</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>54,13; 61,09</t>
+          <t>53,93; 61,12</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>63,03; 68,59</t>
+          <t>63,12; 68,95</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>46,54; 52,16</t>
+          <t>46,69; 52,0</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>58,95; 62,32</t>
+          <t>59,15; 62,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>60,02; 63,48</t>
+          <t>60,24; 63,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>72,41; 75,46</t>
+          <t>72,45; 75,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>41,18; 56,41</t>
+          <t>39,47; 56,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>59,65; 62,89</t>
+          <t>59,51; 62,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>65,14; 68,43</t>
+          <t>65,0; 68,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>74,71; 77,46</t>
+          <t>74,32; 77,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>54,31; 65,76</t>
+          <t>54,51; 65,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>59,76; 62,22</t>
+          <t>59,81; 62,09</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>63,04; 65,56</t>
+          <t>63,21; 65,54</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>73,95; 76,16</t>
+          <t>73,88; 76,0</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>49,06; 58,87</t>
+          <t>48,92; 59,03</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con apoyo afectivo bajo (Duke)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>694</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>573</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>863</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>858</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>717</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1557</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1449</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1290</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1372</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>692720</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>642587</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>566585</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>320059</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>886450</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>920946</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>802126</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>487015</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1579169</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1563533</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1368711</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>807074</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>662495; 723307</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>611230; 673476</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>540990; 588866</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>297976; 340487</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>850128; 918215</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>887310; 953344</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>776588; 828223</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>467260; 505493</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1536429; 1624402</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1522600; 1607309</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1332888; 1400060</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>777337; 834069</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>968</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1112</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1461</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1208</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>913</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1089</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1455</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1773</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1881</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2201</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2916</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2981</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>982134</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1181639</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1555321</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1127919</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>935535</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1176291</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1518549</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1313565</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1917669</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2357929</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>3073870</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2441483</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>940668; 1021540</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1138734; 1229333</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1510615; 1594641</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>737623; 1281998</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>893044; 974017</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1136200; 1218376</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1477532; 1553575</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1183481; 1579523</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1863380; 1977621</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2288480; 2410198</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3021563; 3130094</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2066363; 2700353</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>504</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>532</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>670</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>867</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>311206</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>279159</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>364603</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>328054</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>246395</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>259225</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>352806</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>310868</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>557601</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>538384</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>717409</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>638922</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>285940; 334807</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>257699; 305535</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>341717; 387229</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>303711; 357027</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>223442; 268551</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>235393; 281062</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>329974; 375982</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>288606; 332301</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>523473; 589796</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>503218; 570398</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>687149; 750587</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>606113; 674967</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1957</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2368</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2181</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2508</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>3207</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>3970</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>4138</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>4876</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>5220</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1986059</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2103384</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2486509</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1776030</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2068380</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2356462</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2673481</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2111448</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>4054439</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>4459846</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>5159990</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>3887479</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1935520; 2047449</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2047477; 2164208</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2435905; 2536806</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1352082; 1935428</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2009712; 2120774</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2293157; 2412532</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2611302; 2724069</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1974915; 2390508</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>3977174; 4128712</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>4378457; 4539692</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>5079675; 5225346</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>3448349; 4160619</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>